--- a/Structured_Metrics_Output.xlsx
+++ b/Structured_Metrics_Output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,33 +451,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maintenance Costs Ratio</t>
+          <t>Cash Burn Rate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maintenance Costs PPE</t>
+          <t>Cash Spent</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4995</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PPE Value</t>
+          <t>Cash Received</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -485,33 +485,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depreciation ExpenSe Ratio</t>
+          <t>Days Sales Outstanding</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Depreciation expenses</t>
+          <t>Average Account Receivables</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>1000</v>
+        <v>3650</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fixed Assets Value</t>
+          <t>Annual Sales</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D6" t="n">
-        <v>900</v>
+        <v>4995</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -553,33 +553,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marginal Tax Rate</t>
+          <t>Days of Inventory Outstanding</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Supplier Purchases</t>
+          <t>Average Inventory</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>36500</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Average Accounts Payable</t>
+          <t>Yearly Cost of Goods Solds (COGS)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -587,151 +587,245 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tax Audit Rate</t>
+          <t>Operating Cash Flow</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Number of Tax Audits</t>
+          <t>Net Income</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="D10" t="n">
-        <v>1.25</v>
+        <v>6900</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Tax Filings</t>
+          <t>Non Cash Expenses</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Tax Credits</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Tax Credits</t>
+          <t>Inc. in Working Capital</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Free Cash Flow</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OCF</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Interest Payments</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1000</v>
       </c>
-      <c r="D12" t="n">
-        <v>990</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tax Credits Forfeited</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Deferred Tax Asset/Liability</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Book Value</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>49950</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1000</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tax Value</t>
+          <t>Asset Purchase</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Days Payables Outstanding</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tax Rate</t>
+          <t>Average Account Payables</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yearly Cost Of Goods Solds (COGS)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cash Conversion Cycle</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DIO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DPO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>200</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Overdues Ratio</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Overdues</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
         <v>10</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Asset Turnover</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D17" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total Receivables</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cash Reserves in Days</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cash Reserves</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D23" t="n">
+        <v>251</v>
+      </c>
+      <c r="E23" t="n">
         <v>10</v>
       </c>
-      <c r="E17" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fixed Assets</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>500</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Average Daily Expenses</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
